--- a/outputs-HGR-r202/g__Mediterraneibacter.xlsx
+++ b/outputs-HGR-r202/g__Mediterraneibacter.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,11 @@
           <t>s__Mediterraneibacter lactaris</t>
         </is>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>s__Mediterraneibacter lactaris</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -557,6 +567,11 @@
           <t>s__Mediterraneibacter lactaris</t>
         </is>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>s__Mediterraneibacter lactaris</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -593,6 +608,11 @@
           <t>s__Mediterraneibacter lactaris</t>
         </is>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>s__Mediterraneibacter lactaris</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -629,6 +649,11 @@
           <t>s__Mediterraneibacter lactaris</t>
         </is>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>s__Mediterraneibacter lactaris</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -665,6 +690,11 @@
           <t>s__Mediterraneibacter lactaris</t>
         </is>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>s__Mediterraneibacter lactaris</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -701,6 +731,11 @@
           <t>s__Mediterraneibacter lactaris</t>
         </is>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>s__Mediterraneibacter lactaris</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -737,6 +772,11 @@
           <t>s__Mediterraneibacter faecis</t>
         </is>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>s__Mediterraneibacter faecis(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -773,6 +813,11 @@
           <t>s__Mediterraneibacter lactaris</t>
         </is>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>s__Mediterraneibacter lactaris</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -805,6 +850,11 @@
         <v>0.943553438065695</v>
       </c>
       <c r="J10" t="inlineStr">
+        <is>
+          <t>s__Mediterraneibacter lactaris</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>s__Mediterraneibacter lactaris</t>
         </is>

--- a/outputs-HGR-r202/g__Mediterraneibacter.xlsx
+++ b/outputs-HGR-r202/g__Mediterraneibacter.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -819,47 +819,6 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9594.fa</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.04088075404878964</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.943553438065695</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.009670673777180314</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2.802976300367847e-05</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.003909501671682811</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.001442793209481713</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.0005148094641668515</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.943553438065695</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>s__Mediterraneibacter lactaris</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>s__Mediterraneibacter lactaris</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
